--- a/RA006/RA006時程表預計.xlsx
+++ b/RA006/RA006時程表預計.xlsx
@@ -10,7 +10,7 @@
     <sheet name="APF" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APF!$C$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APF!$C$1:$N$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">APF!$C$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -835,12 +839,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -855,13 +859,14 @@
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="27" customWidth="1"/>
+    <col min="12" max="12" width="26.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -893,16 +898,19 @@
         <v>49</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -929,15 +937,18 @@
       <c r="J2" s="24">
         <v>41529</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="24">
+        <v>41533</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="29">
+      <c r="M2" s="29">
         <v>2</v>
       </c>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -962,15 +973,18 @@
       <c r="J3" s="24">
         <v>41528</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="24">
+        <v>41533</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="29">
+      <c r="M3" s="29">
         <v>2</v>
       </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -995,15 +1009,18 @@
       <c r="J4" s="24">
         <v>41528</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="24">
+        <v>41533</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="29">
+      <c r="M4" s="29">
         <v>0</v>
       </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -1024,13 +1041,20 @@
       <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="24">
+        <v>41535</v>
+      </c>
       <c r="K5" s="24"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -1049,13 +1073,22 @@
       <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="I6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="24">
+        <v>41533</v>
+      </c>
+      <c r="K6" s="24">
+        <v>41533</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1079,10 +1112,11 @@
       <c r="I7" s="10"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="24"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -1106,10 +1140,11 @@
       <c r="I8" s="10"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="24"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -1131,10 +1166,11 @@
       <c r="I9" s="14"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="25"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -1156,10 +1192,11 @@
       <c r="I10" s="10"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="24"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -1181,10 +1218,11 @@
       <c r="I11" s="10"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="24"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -1206,10 +1244,11 @@
       <c r="I12" s="10"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="27">
+      <c r="L12" s="24"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="27">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -1233,10 +1272,11 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="27">
+      <c r="L13" s="24"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="27">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -1260,10 +1300,11 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="27">
+      <c r="L14" s="24"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="27">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -1287,10 +1328,11 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="27">
+      <c r="L15" s="24"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="27">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -1314,10 +1356,11 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="24"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -1339,10 +1382,11 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="24"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -1364,10 +1408,11 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="24"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1379,10 +1424,11 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" s="24"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1394,10 +1440,11 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="24"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1409,10 +1456,11 @@
       <c r="I21" s="11"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21" s="26"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1424,10 +1472,11 @@
       <c r="I22" s="10"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="L22" s="24"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1439,49 +1488,50 @@
       <c r="I23" s="10"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="L23" s="24"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
@@ -1616,7 +1666,7 @@
       <c r="E63" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:M23">
+  <autoFilter ref="C1:N23">
     <filterColumn colId="2"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -1624,6 +1674,7 @@
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C2:C18"/>

--- a/RA006/RA006時程表預計.xlsx
+++ b/RA006/RA006時程表預計.xlsx
@@ -243,7 +243,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>更新日期</t>
+    <t>最後更新日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +844,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M3"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1010,7 +1010,7 @@
         <v>41528</v>
       </c>
       <c r="K4" s="24">
-        <v>41533</v>
+        <v>41540</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>54</v>
@@ -1051,7 +1051,9 @@
       <c r="L5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="29"/>
+      <c r="M5" s="29">
+        <v>0</v>
+      </c>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14">
@@ -1085,7 +1087,9 @@
       <c r="L6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14">

--- a/RA006/RA006時程表預計.xlsx
+++ b/RA006/RA006時程表預計.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>最後更新日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +848,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -938,13 +942,13 @@
         <v>41529</v>
       </c>
       <c r="K2" s="24">
-        <v>41533</v>
+        <v>41541</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="M2" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -974,13 +978,13 @@
         <v>41528</v>
       </c>
       <c r="K3" s="24">
-        <v>41533</v>
+        <v>41541</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>53</v>
       </c>
       <c r="M3" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="9"/>
     </row>
@@ -1010,7 +1014,7 @@
         <v>41528</v>
       </c>
       <c r="K4" s="24">
-        <v>41540</v>
+        <v>41541</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>54</v>
@@ -1047,7 +1051,9 @@
       <c r="J5" s="24">
         <v>41535</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="24">
+        <v>41541</v>
+      </c>
       <c r="L5" s="24" t="s">
         <v>54</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>41533</v>
       </c>
       <c r="K6" s="24">
-        <v>41533</v>
+        <v>41541</v>
       </c>
       <c r="L6" s="24" t="s">
         <v>54</v>
@@ -1113,11 +1119,19 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="24">
+        <v>41541</v>
+      </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="29"/>
+      <c r="L7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14">
